--- a/use_tools/excel_table_comparison/excel_files/groceries.xlsx
+++ b/use_tools/excel_table_comparison/excel_files/groceries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daisyxiao/Desktop/table-processing/use_tools/excel_table_comparison/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47712D5-C769-3045-9946-897CF8A0D38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA069B-6F60-F943-8294-2DFA9595778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19660" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19660" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grocery List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>Sardines</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -530,7 +536,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -539,7 +545,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -548,7 +554,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -557,13 +563,28 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
         <f>SUM(C2:C19)</f>
         <v>99.970000000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -575,153 +596,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955BF52B-56CC-ED43-B7D3-D05C4E95107C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" s="2">
         <v>3.76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="2">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" s="2">
         <v>7.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="2">
         <v>3.98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="2">
         <v>8.98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="2">
         <v>5.76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="2">
         <v>2.66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="2">
         <v>7.98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="2">
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="2">
         <v>5.98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="2">
         <v>3.98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="2">
         <v>3.96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="2">
         <v>5.98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="2">
         <v>5.98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="2">
         <v>4.28</v>
       </c>
@@ -730,7 +787,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="2">
         <v>5.48</v>
       </c>
@@ -739,7 +798,9 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="2">
         <v>3.48</v>
       </c>
